--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. GameProject\DirectX11_Practice2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17CC94BF-D88C-4390-9DB1-F743229AC1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7CA36-C976-41F0-AF27-EA2F161B0BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8712" yWindow="72" windowWidth="14400" windowHeight="11748" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
+    <workbookView xWindow="1068" yWindow="1020" windowWidth="16260" windowHeight="10692" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
   </bookViews>
   <sheets>
     <sheet name="Skul" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,14 +133,6 @@
   </si>
   <si>
     <t>길로틴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리방어력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,10 +217,6 @@
   </si>
   <si>
     <t>S003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -631,6 +619,41 @@
   </si>
   <si>
     <t>P005</t>
+  </si>
+  <si>
+    <t>리틀본/레전더리 제외 모든 스컬은 뼈를 써서 등급을 올릴 수 있음. (워터스컬-&gt;아쿠아스컬-&gt;포세이돈)</t>
+  </si>
+  <si>
+    <t>P002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리틀리틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법공격력 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리공격력 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법방어력 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리방어력 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -683,12 +706,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -705,7 +734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +751,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1093,7 @@
   <dimension ref="B3:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1069,7 +1101,8 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.09765625" customWidth="1"/>
-    <col min="10" max="13" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.09765625" customWidth="1"/>
     <col min="15" max="15" width="37.5" customWidth="1"/>
     <col min="16" max="16" width="24.19921875" customWidth="1"/>
@@ -1081,90 +1114,99 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="H4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>10</v>
       </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="2:16" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1173,88 +1215,106 @@
         <v>44</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="N7">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="N8">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="N9">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1267,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D74111-5A06-453D-9354-EE86E8055134}">
   <dimension ref="B3:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1281,7 +1341,7 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
@@ -1292,36 +1352,36 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="52.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1330,21 +1390,21 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1353,66 +1413,66 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="79.2" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="92.4" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="66" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -1421,27 +1481,27 @@
         <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="39.6" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. GameProject\DirectX11_Practice2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7CA36-C976-41F0-AF27-EA2F161B0BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AE13D6-D487-4B6B-877D-8871A9556C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="1020" windowWidth="16260" windowHeight="10692" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
+    <workbookView xWindow="8232" yWindow="756" windowWidth="14808" windowHeight="10692" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
   </bookViews>
   <sheets>
     <sheet name="Skul" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
   </si>
   <si>
     <t>스킬2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명계의 균열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -648,11 +644,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마법방어력 증가량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리방어력 증가량</t>
+    <t>상태변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>방어력 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명계의균열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8398F3-D011-4647-AE44-4EA589985AAD}">
-  <dimension ref="B3:P9"/>
+  <dimension ref="B3:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1102,18 +1118,18 @@
     <col min="6" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.09765625" customWidth="1"/>
     <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.09765625" customWidth="1"/>
-    <col min="15" max="15" width="37.5" customWidth="1"/>
-    <col min="16" max="16" width="24.19921875" customWidth="1"/>
+    <col min="11" max="12" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.09765625" customWidth="1"/>
+    <col min="14" max="14" width="37.5" customWidth="1"/>
+    <col min="15" max="15" width="24.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
@@ -1133,188 +1149,185 @@
         <v>21</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
       </c>
       <c r="K5">
         <v>10</v>
       </c>
-      <c r="N5">
+      <c r="M5">
         <v>11</v>
       </c>
-      <c r="O5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="M6">
         <v>44</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="O6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
       <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7">
+      <c r="M7">
         <v>22</v>
       </c>
-      <c r="O7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
       <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
         <v>57</v>
       </c>
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8">
+      <c r="M8">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
       <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
         <v>57</v>
       </c>
-      <c r="I9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
         <v>44</v>
       </c>
-      <c r="O9" t="s">
-        <v>71</v>
+      <c r="N9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1325,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D74111-5A06-453D-9354-EE86E8055134}">
-  <dimension ref="B3:J12"/>
+  <dimension ref="B3:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1336,75 +1349,81 @@
     <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1412,67 +1431,76 @@
       <c r="H6">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="153.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="2:12" ht="153.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="66" x14ac:dyDescent="0.4">
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="66" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -1480,32 +1508,35 @@
       <c r="H10">
         <v>30</v>
       </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="J12" s="2"/>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. GameProject\DirectX11_Practice2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AE13D6-D487-4B6B-877D-8871A9556C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1F2EF8-A027-4F70-B357-D4925750A5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8232" yWindow="756" windowWidth="14808" windowHeight="10692" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="21036" windowHeight="12336" activeTab="1" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
   </bookViews>
   <sheets>
     <sheet name="Skul" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
   </si>
   <si>
     <t>유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법공격형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -669,6 +665,38 @@
   </si>
   <si>
     <t>명계의균열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜레이시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라용 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV (가로/세로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개당 이미지 크기(x, y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320, 150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..\Bin\Resources\Skul\Player\GrimReaper_Effect\GateOfNether</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8398F3-D011-4647-AE44-4EA589985AAD}">
   <dimension ref="B3:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1140,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
@@ -1149,22 +1177,22 @@
         <v>21</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>8</v>
@@ -1175,22 +1203,22 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1199,12 +1227,12 @@
         <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1213,10 +1241,10 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -1236,98 +1264,98 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
       <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
         <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
       </c>
       <c r="M7">
         <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
       <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
         <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
       </c>
       <c r="M8">
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
       <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
         <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
       </c>
       <c r="M9">
         <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1338,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D74111-5A06-453D-9354-EE86E8055134}">
-  <dimension ref="B3:L12"/>
+  <dimension ref="B3:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1349,15 +1377,22 @@
     <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1368,174 +1403,282 @@
         <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>74</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="M4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="26.4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
       <c r="H5">
-        <v>200</v>
-      </c>
-      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="153.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="2:17" ht="153.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="K8" t="s">
-        <v>50</v>
+      <c r="J8">
+        <v>7</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="39.6" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="39.6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
-      <c r="K9" t="s">
-        <v>50</v>
+      <c r="J9">
+        <v>7</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="66" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="66" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
-      <c r="K10" t="s">
-        <v>50</v>
+      <c r="J10">
+        <v>7</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="39.6" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="39.6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
       </c>
       <c r="H11">
         <v>14</v>
       </c>
-      <c r="K11" t="s">
-        <v>50</v>
+      <c r="J11">
+        <v>7</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="L12" s="2"/>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. GameProject\DirectX11_Practice2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1F2EF8-A027-4F70-B357-D4925750A5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B652C6F-E873-406D-9DBD-4462BE370B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="21036" windowHeight="12336" activeTab="1" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
+    <workbookView xWindow="4968" yWindow="0" windowWidth="16356" windowHeight="10692" activeTab="2" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
   </bookViews>
   <sheets>
     <sheet name="Skul" sheetId="2" r:id="rId1"/>
     <sheet name="Skill" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Enemy" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,16 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,43 +72,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구뼈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마법데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치명타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿨다운속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -697,6 +661,22 @@
   </si>
   <si>
     <t>..\Bin\Resources\Skul\Player\GrimReaper_Effect\GateOfNether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>248, =devide(1024/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1136,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8398F3-D011-4647-AE44-4EA589985AAD}">
   <dimension ref="B3:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1134,7 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
@@ -1162,63 +1142,63 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1227,27 +1207,27 @@
         <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1256,106 +1236,106 @@
         <v>44</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M7">
         <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M8">
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M9">
         <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1368,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D74111-5A06-453D-9354-EE86E8055134}">
   <dimension ref="B3:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1386,10 +1366,10 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
@@ -1397,57 +1377,57 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="M4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="26.4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1468,30 +1448,30 @@
         <v>7</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Q5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1512,21 +1492,21 @@
         <v>5</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1544,21 +1524,21 @@
         <v>7</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="153.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1576,21 +1556,21 @@
         <v>7</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="39.6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1608,21 +1588,21 @@
         <v>7</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="66" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1640,21 +1620,21 @@
         <v>7</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="39.6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1672,10 +1652,10 @@
         <v>7</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -1689,84 +1669,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030FEF9D-738D-422A-9878-E3C9EF4BAA2B}">
-  <dimension ref="B4:O9"/>
+  <dimension ref="B3:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
+      <c r="L4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D9" t="s">
-        <v>6</v>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. GameProject\DirectX11_Practice2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B652C6F-E873-406D-9DBD-4462BE370B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0386D2A5-61AC-4217-BC3C-3CA4195D2230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4968" yWindow="0" windowWidth="16356" windowHeight="10692" activeTab="2" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
+    <workbookView xWindow="4968" yWindow="0" windowWidth="16356" windowHeight="10692" activeTab="1" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
   </bookViews>
   <sheets>
     <sheet name="Skul" sheetId="2" r:id="rId1"/>
@@ -1348,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D74111-5A06-453D-9354-EE86E8055134}">
   <dimension ref="B3:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:P5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1671,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030FEF9D-738D-422A-9878-E3C9EF4BAA2B}">
   <dimension ref="B3:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. GameProject\DirectX11_Practice2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0386D2A5-61AC-4217-BC3C-3CA4195D2230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B222112-6359-411A-9B3C-89F89FB0EB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4968" yWindow="0" windowWidth="16356" windowHeight="10692" activeTab="1" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{968CEA55-0767-418E-8C7F-D2FC626DF758}"/>
   </bookViews>
   <sheets>
     <sheet name="Skul" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,142 @@
   </si>
   <si>
     <t>248, =devide(1024/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 머리를 던져 마법데미지를 입힙니다.
+던진 머리를 회수하면 쿨타임이 초기화됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머리가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머리로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +820,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,13 +835,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFE0E0E0"/>
-      <name val="Segoe UI"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
@@ -758,23 +887,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1117,7 +1243,7 @@
   <dimension ref="B3:O9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1138,43 +1264,43 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O4" t="s">
@@ -1346,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D74111-5A06-453D-9354-EE86E8055134}">
-  <dimension ref="B3:Q12"/>
+  <dimension ref="B3:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1373,49 +1499,49 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1447,7 +1573,7 @@
       <c r="J5">
         <v>7</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M5" t="s">
@@ -1491,7 +1617,7 @@
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M6" t="s">
@@ -1523,7 +1649,7 @@
       <c r="J7">
         <v>7</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="M7" t="s">
@@ -1555,7 +1681,7 @@
       <c r="J8">
         <v>7</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M8" t="s">
@@ -1587,7 +1713,7 @@
       <c r="J9">
         <v>7</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M9" t="s">
@@ -1619,7 +1745,7 @@
       <c r="J10">
         <v>7</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M10" t="s">
@@ -1651,15 +1777,76 @@
       <c r="J11">
         <v>7</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="L12" s="2"/>
+    <row r="12" spans="2:17" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1686,43 +1873,43 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1730,7 +1917,7 @@
       <c r="C5" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="3"/>
       <c r="N5" t="s">
         <v>82</v>
       </c>
